--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145668.5777516253</v>
+        <v>25166651.99627343</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145668.5777516253</v>
+        <v>25166651.99627343</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5003.370294379178</v>
+        <v>487420.3946958919</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5003.370294379178</v>
+        <v>487420.3946958919</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111452494.819391</v>
+        <v>44519682.99491939</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8078.345767122201</v>
+        <v>914306.5803115886</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16134.06802052706</v>
+        <v>1824111.081393423</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24189.7902739319</v>
+        <v>2733915.582475259</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32406.95404117791</v>
+        <v>3646382.079698581</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40617.36059050226</v>
+        <v>4557503.890555489</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48827.7671398266</v>
+        <v>5468625.701412395</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57038.17368915094</v>
+        <v>6379747.512269298</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65248.58023847528</v>
+        <v>7290869.323126202</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73314.4272977285</v>
+        <v>8196295.761217048</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81357.89896579775</v>
+        <v>9105602.847218299</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89402.57063386697</v>
+        <v>10015148.73321955</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97285.87552451018</v>
+        <v>10922171.99251548</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105176.3804151534</v>
+        <v>11830628.0518114</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113482.0754583529</v>
+        <v>12699231.73143857</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121807.6867298003</v>
+        <v>13561079.84475134</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27049,16 +27049,16 @@
         <v>373</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>397</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>254</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>62</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
